--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Apod</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.338586666666666</v>
+        <v>1.597544666666667</v>
       </c>
       <c r="H2">
-        <v>4.015759999999999</v>
+        <v>4.792634</v>
       </c>
       <c r="I2">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="J2">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.904691</v>
+        <v>2.680128333333334</v>
       </c>
       <c r="N2">
-        <v>11.714073</v>
+        <v>8.040385000000001</v>
       </c>
       <c r="O2">
-        <v>0.8260433615764029</v>
+        <v>0.8195172133182701</v>
       </c>
       <c r="P2">
-        <v>0.826043361576403</v>
+        <v>0.81951721331827</v>
       </c>
       <c r="Q2">
-        <v>5.226767310053332</v>
+        <v>4.281624724898889</v>
       </c>
       <c r="R2">
-        <v>47.04090579047999</v>
+        <v>38.53462252409</v>
       </c>
       <c r="S2">
-        <v>0.01400320845175504</v>
+        <v>0.01881022309045331</v>
       </c>
       <c r="T2">
-        <v>0.01400320845175504</v>
+        <v>0.01881022309045331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.338586666666666</v>
+        <v>1.597544666666667</v>
       </c>
       <c r="H3">
-        <v>4.015759999999999</v>
+        <v>4.792634</v>
       </c>
       <c r="I3">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="J3">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3764886666666667</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N3">
         <v>1.129466</v>
       </c>
       <c r="O3">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="P3">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="Q3">
-        <v>0.503962709351111</v>
+        <v>0.6014574614937778</v>
       </c>
       <c r="R3">
-        <v>4.53566438416</v>
+        <v>5.413117153443999</v>
       </c>
       <c r="S3">
-        <v>0.001350183479065733</v>
+        <v>0.002642349518472304</v>
       </c>
       <c r="T3">
-        <v>0.001350183479065732</v>
+        <v>0.002642349518472303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.338586666666666</v>
+        <v>1.597544666666667</v>
       </c>
       <c r="H4">
-        <v>4.015759999999999</v>
+        <v>4.792634</v>
       </c>
       <c r="I4">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="J4">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.414837</v>
+        <v>0.1408326666666667</v>
       </c>
       <c r="N4">
-        <v>1.244511</v>
+        <v>0.422498</v>
       </c>
       <c r="O4">
-        <v>0.0877594027251504</v>
+        <v>0.0430631597358264</v>
       </c>
       <c r="P4">
-        <v>0.08775940272515041</v>
+        <v>0.04306315973582638</v>
       </c>
       <c r="Q4">
-        <v>0.5552952770399998</v>
+        <v>0.2249864755257778</v>
       </c>
       <c r="R4">
-        <v>4.997657493359998</v>
+        <v>2.024878279732</v>
       </c>
       <c r="S4">
-        <v>0.001487710291160224</v>
+        <v>0.0009884205340005912</v>
       </c>
       <c r="T4">
-        <v>0.001487710291160224</v>
+        <v>0.0009884205340005908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -729,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.338586666666666</v>
+        <v>1.597544666666667</v>
       </c>
       <c r="H5">
-        <v>4.015759999999999</v>
+        <v>4.792634</v>
       </c>
       <c r="I5">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="J5">
-        <v>0.0169521469490798</v>
+        <v>0.02295281024579055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.030964</v>
+        <v>0.072925</v>
       </c>
       <c r="N5">
-        <v>0.092892</v>
+        <v>0.218775</v>
       </c>
       <c r="O5">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="P5">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="Q5">
-        <v>0.04144799754666666</v>
+        <v>0.1165009448166667</v>
       </c>
       <c r="R5">
-        <v>0.3730319779199999</v>
+        <v>1.04850850335</v>
       </c>
       <c r="S5">
-        <v>0.0001110447270988007</v>
+        <v>0.0005118171028643433</v>
       </c>
       <c r="T5">
-        <v>0.0001110447270988007</v>
+        <v>0.0005118171028643432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -797,10 +794,10 @@
         <v>159.087135</v>
       </c>
       <c r="I6">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="J6">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.904691</v>
+        <v>2.680128333333334</v>
       </c>
       <c r="N6">
-        <v>11.714073</v>
+        <v>8.040385000000001</v>
       </c>
       <c r="O6">
-        <v>0.8260433615764029</v>
+        <v>0.8195172133182701</v>
       </c>
       <c r="P6">
-        <v>0.826043361576403</v>
+        <v>0.81951721331827</v>
       </c>
       <c r="Q6">
-        <v>207.062034750095</v>
+        <v>142.1246459941083</v>
       </c>
       <c r="R6">
-        <v>1863.558312750855</v>
+        <v>1279.121813946975</v>
       </c>
       <c r="S6">
-        <v>0.5547468756592763</v>
+        <v>0.6243882800503987</v>
       </c>
       <c r="T6">
-        <v>0.5547468756592764</v>
+        <v>0.6243882800503986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -859,10 +856,10 @@
         <v>159.087135</v>
       </c>
       <c r="I7">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="J7">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3764886666666667</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N7">
         <v>1.129466</v>
       </c>
       <c r="O7">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="P7">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="Q7">
-        <v>19.96483444665667</v>
+        <v>19.96483444665666</v>
       </c>
       <c r="R7">
         <v>179.68351001991</v>
       </c>
       <c r="S7">
-        <v>0.05348846081660754</v>
+        <v>0.08771039360868957</v>
       </c>
       <c r="T7">
-        <v>0.05348846081660754</v>
+        <v>0.08771039360868955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -921,10 +918,10 @@
         <v>159.087135</v>
       </c>
       <c r="I8">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="J8">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.414837</v>
+        <v>0.1408326666666667</v>
       </c>
       <c r="N8">
-        <v>1.244511</v>
+        <v>0.422498</v>
       </c>
       <c r="O8">
-        <v>0.0877594027251504</v>
+        <v>0.0430631597358264</v>
       </c>
       <c r="P8">
-        <v>0.08775940272515041</v>
+        <v>0.04306315973582638</v>
       </c>
       <c r="Q8">
-        <v>21.998409940665</v>
+        <v>7.468221818136668</v>
       </c>
       <c r="R8">
-        <v>197.985689465985</v>
+        <v>67.21399636323</v>
       </c>
       <c r="S8">
-        <v>0.05893668145773051</v>
+        <v>0.03280972236338601</v>
       </c>
       <c r="T8">
-        <v>0.05893668145773052</v>
+        <v>0.03280972236338599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -983,40 +980,40 @@
         <v>159.087135</v>
       </c>
       <c r="I9">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="J9">
-        <v>0.6715711322957788</v>
+        <v>0.7618977001376412</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.030964</v>
+        <v>0.072925</v>
       </c>
       <c r="N9">
-        <v>0.092892</v>
+        <v>0.218775</v>
       </c>
       <c r="O9">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="P9">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="Q9">
-        <v>1.64199134938</v>
+        <v>3.867143106625</v>
       </c>
       <c r="R9">
-        <v>14.77792214442</v>
+        <v>34.804287959625</v>
       </c>
       <c r="S9">
-        <v>0.004399114362164339</v>
+        <v>0.01698930411516687</v>
       </c>
       <c r="T9">
-        <v>0.004399114362164339</v>
+        <v>0.01698930411516687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.277193666666667</v>
+        <v>0.1019876666666667</v>
       </c>
       <c r="H10">
-        <v>3.831581</v>
+        <v>0.305963</v>
       </c>
       <c r="I10">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733674</v>
       </c>
       <c r="J10">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733675</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.904691</v>
+        <v>2.680128333333334</v>
       </c>
       <c r="N10">
-        <v>11.714073</v>
+        <v>8.040385000000001</v>
       </c>
       <c r="O10">
-        <v>0.8260433615764029</v>
+        <v>0.8195172133182701</v>
       </c>
       <c r="P10">
-        <v>0.826043361576403</v>
+        <v>0.81951721331827</v>
       </c>
       <c r="Q10">
-        <v>4.987046615490333</v>
+        <v>0.2733400350838889</v>
       </c>
       <c r="R10">
-        <v>44.883419539413</v>
+        <v>2.460060315755</v>
       </c>
       <c r="S10">
-        <v>0.01336096465993586</v>
+        <v>0.001200849530221662</v>
       </c>
       <c r="T10">
-        <v>0.01336096465993586</v>
+        <v>0.001200849530221662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1083,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.277193666666667</v>
+        <v>0.1019876666666667</v>
       </c>
       <c r="H11">
-        <v>3.831581</v>
+        <v>0.305963</v>
       </c>
       <c r="I11">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733674</v>
       </c>
       <c r="J11">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733675</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3764886666666667</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N11">
         <v>1.129466</v>
       </c>
       <c r="O11">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="P11">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="Q11">
-        <v>0.4808489406384445</v>
+        <v>0.03839720063977777</v>
       </c>
       <c r="R11">
-        <v>4.327640465746001</v>
+        <v>0.3455748057579999</v>
       </c>
       <c r="S11">
-        <v>0.00128825860233235</v>
+        <v>0.0001686882799146234</v>
       </c>
       <c r="T11">
-        <v>0.00128825860233235</v>
+        <v>0.0001686882799146234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.277193666666667</v>
+        <v>0.1019876666666667</v>
       </c>
       <c r="H12">
-        <v>3.831581</v>
+        <v>0.305963</v>
       </c>
       <c r="I12">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733674</v>
       </c>
       <c r="J12">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733675</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.414837</v>
+        <v>0.1408326666666667</v>
       </c>
       <c r="N12">
-        <v>1.244511</v>
+        <v>0.422498</v>
       </c>
       <c r="O12">
-        <v>0.0877594027251504</v>
+        <v>0.0430631597358264</v>
       </c>
       <c r="P12">
-        <v>0.08775940272515041</v>
+        <v>0.04306315973582638</v>
       </c>
       <c r="Q12">
-        <v>0.529827189099</v>
+        <v>0.01436319506377778</v>
       </c>
       <c r="R12">
-        <v>4.768444701890999</v>
+        <v>0.129268755574</v>
       </c>
       <c r="S12">
-        <v>0.001419477878437452</v>
+        <v>6.310102374694643E-05</v>
       </c>
       <c r="T12">
-        <v>0.001419477878437452</v>
+        <v>6.310102374694642E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.277193666666667</v>
+        <v>0.1019876666666667</v>
       </c>
       <c r="H13">
-        <v>3.831581</v>
+        <v>0.305963</v>
       </c>
       <c r="I13">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733674</v>
       </c>
       <c r="J13">
-        <v>0.0161746529073705</v>
+        <v>0.001465313370733675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.030964</v>
+        <v>0.072925</v>
       </c>
       <c r="N13">
-        <v>0.092892</v>
+        <v>0.218775</v>
       </c>
       <c r="O13">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="P13">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="Q13">
-        <v>0.03954702469466666</v>
+        <v>0.007437450591666666</v>
       </c>
       <c r="R13">
-        <v>0.355923222252</v>
+        <v>0.06693705532499999</v>
       </c>
       <c r="S13">
-        <v>0.0001059517666648281</v>
+        <v>3.267453685044238E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001059517666648281</v>
+        <v>3.267453685044238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.46948866666667</v>
+        <v>14.16318533333333</v>
       </c>
       <c r="H14">
-        <v>49.408466</v>
+        <v>42.489556</v>
       </c>
       <c r="I14">
-        <v>0.2085731159632581</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="J14">
-        <v>0.208573115963258</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.904691</v>
+        <v>2.680128333333334</v>
       </c>
       <c r="N14">
-        <v>11.714073</v>
+        <v>8.040385000000001</v>
       </c>
       <c r="O14">
-        <v>0.8260433615764029</v>
+        <v>0.8195172133182701</v>
       </c>
       <c r="P14">
-        <v>0.826043361576403</v>
+        <v>0.81951721331827</v>
       </c>
       <c r="Q14">
-        <v>64.30826417133532</v>
+        <v>37.95915430211778</v>
       </c>
       <c r="R14">
-        <v>578.7743775420179</v>
+        <v>341.63238871906</v>
       </c>
       <c r="S14">
-        <v>0.1722904378447546</v>
+        <v>0.1667638353720123</v>
       </c>
       <c r="T14">
-        <v>0.1722904378447546</v>
+        <v>0.1667638353720123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.46948866666667</v>
+        <v>14.16318533333333</v>
       </c>
       <c r="H15">
-        <v>49.408466</v>
+        <v>42.489556</v>
       </c>
       <c r="I15">
-        <v>0.2085731159632581</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="J15">
-        <v>0.208573115963258</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3764886666666667</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N15">
         <v>1.129466</v>
       </c>
       <c r="O15">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="P15">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="Q15">
-        <v>6.200575828795111</v>
+        <v>5.332278761899555</v>
       </c>
       <c r="R15">
-        <v>55.805182459156</v>
+        <v>47.990508857096</v>
       </c>
       <c r="S15">
-        <v>0.01661217167340204</v>
+        <v>0.02342600286954981</v>
       </c>
       <c r="T15">
-        <v>0.01661217167340203</v>
+        <v>0.02342600286954981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1393,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1411,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.46948866666667</v>
+        <v>14.16318533333333</v>
       </c>
       <c r="H16">
-        <v>49.408466</v>
+        <v>42.489556</v>
       </c>
       <c r="I16">
-        <v>0.2085731159632581</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="J16">
-        <v>0.208573115963258</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.414837</v>
+        <v>0.1408326666666667</v>
       </c>
       <c r="N16">
-        <v>1.244511</v>
+        <v>0.422498</v>
       </c>
       <c r="O16">
-        <v>0.0877594027251504</v>
+        <v>0.0430631597358264</v>
       </c>
       <c r="P16">
-        <v>0.08775940272515041</v>
+        <v>0.04306315973582638</v>
       </c>
       <c r="Q16">
-        <v>6.832153270014</v>
+        <v>1.994639158987556</v>
       </c>
       <c r="R16">
-        <v>61.48937943012599</v>
+        <v>17.951752430888</v>
       </c>
       <c r="S16">
-        <v>0.01830425208145906</v>
+        <v>0.008762936963466857</v>
       </c>
       <c r="T16">
-        <v>0.01830425208145906</v>
+        <v>0.008762936963466856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1473,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.46948866666667</v>
+        <v>14.16318533333333</v>
       </c>
       <c r="H17">
-        <v>49.408466</v>
+        <v>42.489556</v>
       </c>
       <c r="I17">
-        <v>0.2085731159632581</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="J17">
-        <v>0.208573115963258</v>
+        <v>0.2034903387773594</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.030964</v>
+        <v>0.072925</v>
       </c>
       <c r="N17">
-        <v>0.092892</v>
+        <v>0.218775</v>
       </c>
       <c r="O17">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="P17">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="Q17">
-        <v>0.5099612470746667</v>
+        <v>1.032850290433333</v>
       </c>
       <c r="R17">
-        <v>4.589651223672</v>
+        <v>9.2956526139</v>
       </c>
       <c r="S17">
-        <v>0.001366254363642343</v>
+        <v>0.004537563572330428</v>
       </c>
       <c r="T17">
-        <v>0.001366254363642342</v>
+        <v>0.004537563572330428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1517,31 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5156353333333333</v>
+        <v>0.709504</v>
       </c>
       <c r="H18">
-        <v>1.546906</v>
+        <v>2.128512</v>
       </c>
       <c r="I18">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="J18">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.904691</v>
+        <v>2.680128333333334</v>
       </c>
       <c r="N18">
-        <v>11.714073</v>
+        <v>8.040385000000001</v>
       </c>
       <c r="O18">
-        <v>0.8260433615764029</v>
+        <v>0.8195172133182701</v>
       </c>
       <c r="P18">
-        <v>0.826043361576403</v>
+        <v>0.81951721331827</v>
       </c>
       <c r="Q18">
-        <v>2.013396645348667</v>
+        <v>1.901561773013334</v>
       </c>
       <c r="R18">
-        <v>18.120569808138</v>
+        <v>17.11405595712</v>
       </c>
       <c r="S18">
-        <v>0.005394158807615641</v>
+        <v>0.008354025275184158</v>
       </c>
       <c r="T18">
-        <v>0.005394158807615642</v>
+        <v>0.008354025275184158</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1579,31 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5156353333333333</v>
+        <v>0.709504</v>
       </c>
       <c r="H19">
-        <v>1.546906</v>
+        <v>2.128512</v>
       </c>
       <c r="I19">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="J19">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3764886666666667</v>
+        <v>0.3764886666666666</v>
       </c>
       <c r="N19">
         <v>1.129466</v>
       </c>
       <c r="O19">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="P19">
-        <v>0.07964675407317794</v>
+        <v>0.1151209586179932</v>
       </c>
       <c r="Q19">
-        <v>0.1941308591328889</v>
+        <v>0.2671202149546666</v>
       </c>
       <c r="R19">
-        <v>1.747177732196</v>
+        <v>2.404081934592</v>
       </c>
       <c r="S19">
-        <v>0.0005201025272595117</v>
+        <v>0.001173524341366881</v>
       </c>
       <c r="T19">
-        <v>0.0005201025272595117</v>
+        <v>0.001173524341366881</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1641,31 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5156353333333333</v>
+        <v>0.709504</v>
       </c>
       <c r="H20">
-        <v>1.546906</v>
+        <v>2.128512</v>
       </c>
       <c r="I20">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="J20">
-        <v>0.00653011580084797</v>
+        <v>0.01019383746847519</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.414837</v>
+        <v>0.1408326666666667</v>
       </c>
       <c r="N20">
-        <v>1.244511</v>
+        <v>0.422498</v>
       </c>
       <c r="O20">
-        <v>0.0877594027251504</v>
+        <v>0.0430631597358264</v>
       </c>
       <c r="P20">
-        <v>0.08775940272515041</v>
+        <v>0.04306315973582638</v>
       </c>
       <c r="Q20">
-        <v>0.213904614774</v>
+        <v>0.09992134033066669</v>
       </c>
       <c r="R20">
-        <v>1.925141532966</v>
+        <v>0.8992920629760002</v>
       </c>
       <c r="S20">
-        <v>0.0005730790624084851</v>
+        <v>0.0004389788512259994</v>
       </c>
       <c r="T20">
-        <v>0.0005730790624084851</v>
+        <v>0.0004389788512259993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1703,61 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.709504</v>
+      </c>
+      <c r="H21">
+        <v>2.128512</v>
+      </c>
+      <c r="I21">
+        <v>0.01019383746847519</v>
+      </c>
+      <c r="J21">
+        <v>0.01019383746847519</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.5156353333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.546906</v>
-      </c>
-      <c r="I21">
-        <v>0.00653011580084797</v>
-      </c>
-      <c r="J21">
-        <v>0.00653011580084797</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M21">
-        <v>0.030964</v>
+        <v>0.072925</v>
       </c>
       <c r="N21">
-        <v>0.092892</v>
+        <v>0.218775</v>
       </c>
       <c r="O21">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="P21">
-        <v>0.006550481625268618</v>
+        <v>0.02229866832791023</v>
       </c>
       <c r="Q21">
-        <v>0.01596613246133333</v>
+        <v>0.0517405792</v>
       </c>
       <c r="R21">
-        <v>0.143695192152</v>
+        <v>0.4656652128000001</v>
       </c>
       <c r="S21">
-        <v>4.277540356433089E-05</v>
+        <v>0.0002273090006981524</v>
       </c>
       <c r="T21">
-        <v>4.277540356433089E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.332713666666667</v>
-      </c>
-      <c r="H22">
-        <v>18.998141</v>
-      </c>
-      <c r="I22">
-        <v>0.08019883608366485</v>
-      </c>
-      <c r="J22">
-        <v>0.08019883608366483</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.904691</v>
-      </c>
-      <c r="N22">
-        <v>11.714073</v>
-      </c>
-      <c r="O22">
-        <v>0.8260433615764029</v>
-      </c>
-      <c r="P22">
-        <v>0.826043361576403</v>
-      </c>
-      <c r="Q22">
-        <v>24.72729005981033</v>
-      </c>
-      <c r="R22">
-        <v>222.545610538293</v>
-      </c>
-      <c r="S22">
-        <v>0.06624771615306543</v>
-      </c>
-      <c r="T22">
-        <v>0.06624771615306543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.332713666666667</v>
-      </c>
-      <c r="H23">
-        <v>18.998141</v>
-      </c>
-      <c r="I23">
-        <v>0.08019883608366485</v>
-      </c>
-      <c r="J23">
-        <v>0.08019883608366483</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.3764886666666667</v>
-      </c>
-      <c r="N23">
-        <v>1.129466</v>
-      </c>
-      <c r="O23">
-        <v>0.07964675407317794</v>
-      </c>
-      <c r="P23">
-        <v>0.07964675407317794</v>
-      </c>
-      <c r="Q23">
-        <v>2.384194924745112</v>
-      </c>
-      <c r="R23">
-        <v>21.457754322706</v>
-      </c>
-      <c r="S23">
-        <v>0.006387576974510763</v>
-      </c>
-      <c r="T23">
-        <v>0.006387576974510762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.332713666666667</v>
-      </c>
-      <c r="H24">
-        <v>18.998141</v>
-      </c>
-      <c r="I24">
-        <v>0.08019883608366485</v>
-      </c>
-      <c r="J24">
-        <v>0.08019883608366483</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.414837</v>
-      </c>
-      <c r="N24">
-        <v>1.244511</v>
-      </c>
-      <c r="O24">
-        <v>0.0877594027251504</v>
-      </c>
-      <c r="P24">
-        <v>0.08775940272515041</v>
-      </c>
-      <c r="Q24">
-        <v>2.627043939339</v>
-      </c>
-      <c r="R24">
-        <v>23.643395454051</v>
-      </c>
-      <c r="S24">
-        <v>0.007038201953954667</v>
-      </c>
-      <c r="T24">
-        <v>0.007038201953954667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.332713666666667</v>
-      </c>
-      <c r="H25">
-        <v>18.998141</v>
-      </c>
-      <c r="I25">
-        <v>0.08019883608366485</v>
-      </c>
-      <c r="J25">
-        <v>0.08019883608366483</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.030964</v>
-      </c>
-      <c r="N25">
-        <v>0.092892</v>
-      </c>
-      <c r="O25">
-        <v>0.006550481625268618</v>
-      </c>
-      <c r="P25">
-        <v>0.006550481625268618</v>
-      </c>
-      <c r="Q25">
-        <v>0.1960861459746667</v>
-      </c>
-      <c r="R25">
-        <v>1.764775313772</v>
-      </c>
-      <c r="S25">
-        <v>0.0005253410021339764</v>
-      </c>
-      <c r="T25">
-        <v>0.0005253410021339763</v>
+        <v>0.0002273090006981524</v>
       </c>
     </row>
   </sheetData>
